--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H2">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I2">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J2">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N2">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O2">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P2">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q2">
-        <v>14.32274697160267</v>
+        <v>226.82714497674</v>
       </c>
       <c r="R2">
-        <v>128.904722744424</v>
+        <v>2041.44430479066</v>
       </c>
       <c r="S2">
-        <v>0.0003701302299158748</v>
+        <v>0.008892390955563354</v>
       </c>
       <c r="T2">
-        <v>0.0003701302299158748</v>
+        <v>0.008892390955563354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H3">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I3">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J3">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>319.008461</v>
       </c>
       <c r="O3">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P3">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q3">
-        <v>2105.451163809239</v>
+        <v>3565.252596508284</v>
       </c>
       <c r="R3">
-        <v>18949.06047428315</v>
+        <v>32087.27336857456</v>
       </c>
       <c r="S3">
-        <v>0.05440933396941522</v>
+        <v>0.1397699554290121</v>
       </c>
       <c r="T3">
-        <v>0.05440933396941521</v>
+        <v>0.1397699554290121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H4">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I4">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J4">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N4">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O4">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P4">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q4">
-        <v>1146.283241698247</v>
+        <v>570.698137698216</v>
       </c>
       <c r="R4">
-        <v>10316.54917528422</v>
+        <v>5136.283239283944</v>
       </c>
       <c r="S4">
-        <v>0.02962239580435817</v>
+        <v>0.0223732964524368</v>
       </c>
       <c r="T4">
-        <v>0.02962239580435816</v>
+        <v>0.0223732964524368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H5">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I5">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J5">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N5">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O5">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P5">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q5">
-        <v>592.5788317552252</v>
+        <v>1786.845595733484</v>
       </c>
       <c r="R5">
-        <v>5333.209485797028</v>
+        <v>16081.61036160135</v>
       </c>
       <c r="S5">
-        <v>0.015313496752802</v>
+        <v>0.0700503884405811</v>
       </c>
       <c r="T5">
-        <v>0.015313496752802</v>
+        <v>0.07005038844058112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H6">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I6">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J6">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N6">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O6">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P6">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q6">
-        <v>38.731901728916</v>
+        <v>61.46103345162</v>
       </c>
       <c r="R6">
-        <v>348.587115560244</v>
+        <v>553.14930106458</v>
       </c>
       <c r="S6">
-        <v>0.001000914679315781</v>
+        <v>0.002409480302901167</v>
       </c>
       <c r="T6">
-        <v>0.001000914679315781</v>
+        <v>0.002409480302901167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.799956</v>
+        <v>33.528132</v>
       </c>
       <c r="H7">
-        <v>59.399868</v>
+        <v>100.584396</v>
       </c>
       <c r="I7">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="J7">
-        <v>0.1536849323813902</v>
+        <v>0.2545541120163005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N7">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O7">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P7">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q7">
-        <v>2049.70215029621</v>
+        <v>282.082825285932</v>
       </c>
       <c r="R7">
-        <v>18447.31935266589</v>
+        <v>2538.745427573388</v>
       </c>
       <c r="S7">
-        <v>0.05296866094558315</v>
+        <v>0.01105860043580587</v>
       </c>
       <c r="T7">
-        <v>0.05296866094558315</v>
+        <v>0.01105860043580587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>189.568985</v>
       </c>
       <c r="I8">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J8">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N8">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O8">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P8">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q8">
-        <v>45.70967406558111</v>
+        <v>427.4956489641639</v>
       </c>
       <c r="R8">
-        <v>411.38706659023</v>
+        <v>3847.460840677475</v>
       </c>
       <c r="S8">
-        <v>0.001181235150269509</v>
+        <v>0.01675927474545182</v>
       </c>
       <c r="T8">
-        <v>0.00118123515026951</v>
+        <v>0.01675927474545182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>189.568985</v>
       </c>
       <c r="I9">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J9">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>319.008461</v>
       </c>
       <c r="O9">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P9">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q9">
         <v>6719.345573131343</v>
@@ -1013,10 +1013,10 @@
         <v>60474.11015818208</v>
       </c>
       <c r="S9">
-        <v>0.1736421740046302</v>
+        <v>0.2634210636824132</v>
       </c>
       <c r="T9">
-        <v>0.1736421740046302</v>
+        <v>0.2634210636824132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>189.568985</v>
       </c>
       <c r="I10">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J10">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N10">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O10">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P10">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q10">
-        <v>3658.253089910003</v>
+        <v>1075.581014622199</v>
       </c>
       <c r="R10">
-        <v>32924.27780919003</v>
+        <v>9680.22913159979</v>
       </c>
       <c r="S10">
-        <v>0.09453703678096449</v>
+        <v>0.04216641216986127</v>
       </c>
       <c r="T10">
-        <v>0.09453703678096449</v>
+        <v>0.04216641216986127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>189.568985</v>
       </c>
       <c r="I11">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J11">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N11">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O11">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P11">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q11">
-        <v>1891.158540425104</v>
+        <v>3367.62479475362</v>
       </c>
       <c r="R11">
-        <v>17020.42686382593</v>
+        <v>30308.62315278258</v>
       </c>
       <c r="S11">
-        <v>0.04887155702483161</v>
+        <v>0.1320222774468586</v>
       </c>
       <c r="T11">
-        <v>0.04887155702483161</v>
+        <v>0.1320222774468586</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>189.568985</v>
       </c>
       <c r="I12">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J12">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N12">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O12">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P12">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q12">
-        <v>123.6091517555283</v>
+        <v>115.8341272782972</v>
       </c>
       <c r="R12">
-        <v>1112.482365799755</v>
+        <v>1042.507145504675</v>
       </c>
       <c r="S12">
-        <v>0.003194323257241801</v>
+        <v>0.004541089409121338</v>
       </c>
       <c r="T12">
-        <v>0.003194323257241801</v>
+        <v>0.004541089409121338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>189.568985</v>
       </c>
       <c r="I13">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="J13">
-        <v>0.4904707303614508</v>
+        <v>0.4797519949566172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N13">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O13">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P13">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q13">
-        <v>6541.427940277074</v>
+        <v>531.634696850856</v>
       </c>
       <c r="R13">
-        <v>58872.85146249367</v>
+        <v>4784.712271657705</v>
       </c>
       <c r="S13">
-        <v>0.1690444041435132</v>
+        <v>0.02084187750291086</v>
       </c>
       <c r="T13">
-        <v>0.1690444041435132</v>
+        <v>0.02084187750291086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H14">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I14">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J14">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N14">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O14">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P14">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q14">
-        <v>9.477293757122</v>
+        <v>94.49081837890333</v>
       </c>
       <c r="R14">
-        <v>85.295643814098</v>
+        <v>850.4173654101299</v>
       </c>
       <c r="S14">
-        <v>0.0002449134180935221</v>
+        <v>0.003704359541370161</v>
       </c>
       <c r="T14">
-        <v>0.0002449134180935221</v>
+        <v>0.00370435954137016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H15">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I15">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J15">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>319.008461</v>
       </c>
       <c r="O15">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P15">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q15">
-        <v>1393.167051701519</v>
+        <v>1485.199823002329</v>
       </c>
       <c r="R15">
-        <v>12538.50346531367</v>
+        <v>13366.79840702096</v>
       </c>
       <c r="S15">
-        <v>0.03600239829551391</v>
+        <v>0.05822485432519336</v>
       </c>
       <c r="T15">
-        <v>0.0360023982955139</v>
+        <v>0.05822485432519336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H16">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I16">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J16">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N16">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O16">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P16">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q16">
-        <v>758.4901857150352</v>
+        <v>237.7393326709213</v>
       </c>
       <c r="R16">
-        <v>6826.411671435317</v>
+        <v>2139.653994038292</v>
       </c>
       <c r="S16">
-        <v>0.01960099884360568</v>
+        <v>0.00932018560583371</v>
       </c>
       <c r="T16">
-        <v>0.01960099884360568</v>
+        <v>0.00932018560583371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H17">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I17">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J17">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N17">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O17">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P17">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q17">
-        <v>392.106603148909</v>
+        <v>744.3575709375951</v>
       </c>
       <c r="R17">
-        <v>3528.959428340181</v>
+        <v>6699.218138438357</v>
       </c>
       <c r="S17">
-        <v>0.01013286818951594</v>
+        <v>0.02918133335491807</v>
       </c>
       <c r="T17">
-        <v>0.01013286818951594</v>
+        <v>0.02918133335491807</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H18">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I18">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J18">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N18">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O18">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P18">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q18">
-        <v>25.628715719457</v>
+        <v>25.60321142274333</v>
       </c>
       <c r="R18">
-        <v>230.658441475113</v>
+        <v>230.42890280469</v>
       </c>
       <c r="S18">
-        <v>0.000662300497278824</v>
+        <v>0.00100373244883158</v>
       </c>
       <c r="T18">
-        <v>0.000662300497278824</v>
+        <v>0.00100373244883158</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.101537</v>
+        <v>13.967026</v>
       </c>
       <c r="H19">
-        <v>39.304611</v>
+        <v>41.901078</v>
       </c>
       <c r="I19">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="J19">
-        <v>0.1016925910308731</v>
+        <v>0.1060412164011577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N19">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O19">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P19">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q19">
-        <v>1356.278193804338</v>
+        <v>117.5090265965926</v>
       </c>
       <c r="R19">
-        <v>12206.50374423904</v>
+        <v>1057.581239369334</v>
       </c>
       <c r="S19">
-        <v>0.03504911178686521</v>
+        <v>0.004606751125010841</v>
       </c>
       <c r="T19">
-        <v>0.03504911178686522</v>
+        <v>0.004606751125010841</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H20">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I20">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J20">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N20">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O20">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P20">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q20">
-        <v>11.44519172253422</v>
+        <v>67.52272762265333</v>
       </c>
       <c r="R20">
-        <v>103.006725502808</v>
+        <v>607.70454860388</v>
       </c>
       <c r="S20">
-        <v>0.000295768084997374</v>
+        <v>0.002647119208189224</v>
       </c>
       <c r="T20">
-        <v>0.000295768084997374</v>
+        <v>0.002647119208189224</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H21">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I21">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J21">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>319.008461</v>
       </c>
       <c r="O21">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P21">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q21">
-        <v>1682.44906371708</v>
+        <v>1061.317330448579</v>
       </c>
       <c r="R21">
-        <v>15142.04157345372</v>
+        <v>9551.855974037207</v>
       </c>
       <c r="S21">
-        <v>0.04347806045935267</v>
+        <v>0.04160722752663208</v>
       </c>
       <c r="T21">
-        <v>0.04347806045935267</v>
+        <v>0.04160722752663208</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H22">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I22">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J22">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N22">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O22">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P22">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q22">
-        <v>915.9857041094157</v>
+        <v>169.8874925684213</v>
       </c>
       <c r="R22">
-        <v>8243.871336984741</v>
+        <v>1528.987433115792</v>
       </c>
       <c r="S22">
-        <v>0.02367101785250178</v>
+        <v>0.006660164075748876</v>
       </c>
       <c r="T22">
-        <v>0.02367101785250178</v>
+        <v>0.006660164075748877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H23">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I23">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J23">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N23">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O23">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P23">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q23">
-        <v>473.5249707057417</v>
+        <v>531.9146810088452</v>
       </c>
       <c r="R23">
-        <v>4261.724736351675</v>
+        <v>4787.232129079607</v>
       </c>
       <c r="S23">
-        <v>0.01223689189131939</v>
+        <v>0.02085285382849332</v>
       </c>
       <c r="T23">
-        <v>0.01223689189131939</v>
+        <v>0.02085285382849332</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H24">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I24">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J24">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N24">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O24">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P24">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q24">
-        <v>30.95035065163867</v>
+        <v>18.29594346649333</v>
       </c>
       <c r="R24">
-        <v>278.553155864748</v>
+        <v>164.66349119844</v>
       </c>
       <c r="S24">
-        <v>0.0007998228569827284</v>
+        <v>0.0007172628400433609</v>
       </c>
       <c r="T24">
-        <v>0.0007998228569827284</v>
+        <v>0.0007172628400433609</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.82198533333333</v>
+        <v>9.980775999999999</v>
       </c>
       <c r="H25">
-        <v>47.465956</v>
+        <v>29.942328</v>
       </c>
       <c r="I25">
-        <v>0.1228083913970658</v>
+        <v>0.07577659178607395</v>
       </c>
       <c r="J25">
-        <v>0.1228083913970657</v>
+        <v>0.07577659178607396</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N25">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O25">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P25">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q25">
-        <v>1637.900476126737</v>
+        <v>83.97143904784265</v>
       </c>
       <c r="R25">
-        <v>14741.10428514063</v>
+        <v>755.742951430584</v>
       </c>
       <c r="S25">
-        <v>0.0423268302519118</v>
+        <v>0.003291964306967081</v>
       </c>
       <c r="T25">
-        <v>0.04232683025191181</v>
+        <v>0.003291964306967081</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H26">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I26">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J26">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N26">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O26">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P26">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q26">
-        <v>1.788961367970667</v>
+        <v>13.62997017668222</v>
       </c>
       <c r="R26">
-        <v>16.100652311736</v>
+        <v>122.66973159014</v>
       </c>
       <c r="S26">
-        <v>4.623056483162242E-05</v>
+        <v>0.0005343409120462898</v>
       </c>
       <c r="T26">
-        <v>4.623056483162242E-05</v>
+        <v>0.0005343409120462897</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H27">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I27">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J27">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>319.008461</v>
       </c>
       <c r="O27">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P27">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q27">
-        <v>262.9782402545747</v>
+        <v>214.2348816660805</v>
       </c>
       <c r="R27">
-        <v>2366.804162291172</v>
+        <v>1928.113934994724</v>
       </c>
       <c r="S27">
-        <v>0.006795916783371502</v>
+        <v>0.008398731661014354</v>
       </c>
       <c r="T27">
-        <v>0.0067959167833715</v>
+        <v>0.008398731661014352</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H28">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I28">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J28">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N28">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O28">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P28">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q28">
-        <v>143.1748002122867</v>
+        <v>34.29306751408622</v>
       </c>
       <c r="R28">
-        <v>1288.57320191058</v>
+        <v>308.637607626776</v>
       </c>
       <c r="S28">
-        <v>0.003699941207214062</v>
+        <v>0.001344404186862444</v>
       </c>
       <c r="T28">
-        <v>0.003699941207214062</v>
+        <v>0.001344404186862443</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H29">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I29">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J29">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N29">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O29">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P29">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q29">
-        <v>74.01517597072133</v>
+        <v>107.3709770613249</v>
       </c>
       <c r="R29">
-        <v>666.136583736492</v>
+        <v>966.3387935519239</v>
       </c>
       <c r="S29">
-        <v>0.001912709493061832</v>
+        <v>0.004209305307828277</v>
       </c>
       <c r="T29">
-        <v>0.001912709493061832</v>
+        <v>0.004209305307828276</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H30">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I30">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J30">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N30">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O30">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P30">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q30">
-        <v>4.837750470524</v>
+        <v>3.693173729535555</v>
       </c>
       <c r="R30">
-        <v>43.53975423471601</v>
+        <v>33.23856356581999</v>
       </c>
       <c r="S30">
-        <v>0.0001250177565435493</v>
+        <v>0.0001447848963280557</v>
       </c>
       <c r="T30">
-        <v>0.0001250177565435493</v>
+        <v>0.0001447848963280556</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.473084</v>
+        <v>2.014694666666667</v>
       </c>
       <c r="H31">
-        <v>7.419252</v>
+        <v>6.044084</v>
       </c>
       <c r="I31">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="J31">
-        <v>0.01919578747111852</v>
+        <v>0.01529607470697472</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N31">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O31">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P31">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q31">
-        <v>256.0149927940827</v>
+        <v>16.95026623200578</v>
       </c>
       <c r="R31">
-        <v>2304.134935146744</v>
+        <v>152.552396088052</v>
       </c>
       <c r="S31">
-        <v>0.006615971666095953</v>
+        <v>0.0006645077428953027</v>
       </c>
       <c r="T31">
-        <v>0.006615971666095954</v>
+        <v>0.0006645077428953026</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H32">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I32">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J32">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7233726666666667</v>
+        <v>6.765278333333334</v>
       </c>
       <c r="N32">
-        <v>2.170118</v>
+        <v>20.295835</v>
       </c>
       <c r="O32">
-        <v>0.002408370320893567</v>
+        <v>0.0349332049092726</v>
       </c>
       <c r="P32">
-        <v>0.002408370320893567</v>
+        <v>0.03493320490927259</v>
       </c>
       <c r="Q32">
-        <v>10.451650697706</v>
+        <v>61.11002402475445</v>
       </c>
       <c r="R32">
-        <v>94.064856279354</v>
+        <v>549.99021622279</v>
       </c>
       <c r="S32">
-        <v>0.0002700928727856642</v>
+        <v>0.002395719546651747</v>
       </c>
       <c r="T32">
-        <v>0.0002700928727856642</v>
+        <v>0.002395719546651747</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H33">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I33">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J33">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>319.008461</v>
       </c>
       <c r="O33">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231155</v>
       </c>
       <c r="P33">
-        <v>0.3540316745846692</v>
+        <v>0.5490775785231153</v>
       </c>
       <c r="Q33">
-        <v>1536.398022588987</v>
+        <v>960.522920875635</v>
       </c>
       <c r="R33">
-        <v>13827.58220330088</v>
+        <v>8644.706287880714</v>
       </c>
       <c r="S33">
-        <v>0.0397037910723857</v>
+        <v>0.03765574589885026</v>
       </c>
       <c r="T33">
-        <v>0.0397037910723857</v>
+        <v>0.03765574589885025</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H34">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I34">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J34">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.89322166666668</v>
+        <v>17.02147133333333</v>
       </c>
       <c r="N34">
-        <v>173.679665</v>
+        <v>51.064414</v>
       </c>
       <c r="O34">
-        <v>0.1927475605145606</v>
+        <v>0.08789210386436075</v>
       </c>
       <c r="P34">
-        <v>0.1927475605145607</v>
+        <v>0.08789210386436073</v>
       </c>
       <c r="Q34">
-        <v>836.4702711440551</v>
+        <v>153.7531008874485</v>
       </c>
       <c r="R34">
-        <v>7528.232440296496</v>
+        <v>1383.777907987036</v>
       </c>
       <c r="S34">
-        <v>0.02161617002591646</v>
+        <v>0.006027641373617647</v>
       </c>
       <c r="T34">
-        <v>0.02161617002591646</v>
+        <v>0.006027641373617647</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H35">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I35">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J35">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.92829033333333</v>
+        <v>53.29392033333333</v>
       </c>
       <c r="N35">
-        <v>89.784871</v>
+        <v>159.881761</v>
       </c>
       <c r="O35">
-        <v>0.09964214783788601</v>
+        <v>0.2751885950131319</v>
       </c>
       <c r="P35">
-        <v>0.09964214783788602</v>
+        <v>0.2751885950131318</v>
       </c>
       <c r="Q35">
-        <v>432.418932809457</v>
+        <v>481.3981910983237</v>
       </c>
       <c r="R35">
-        <v>3891.770395285113</v>
+        <v>4332.583719884913</v>
       </c>
       <c r="S35">
-        <v>0.01117462448635524</v>
+        <v>0.01887243663445249</v>
       </c>
       <c r="T35">
-        <v>0.01117462448635524</v>
+        <v>0.01887243663445248</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H36">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I36">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J36">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.956161</v>
+        <v>1.833118333333333</v>
       </c>
       <c r="N36">
-        <v>5.868483</v>
+        <v>5.499355</v>
       </c>
       <c r="O36">
-        <v>0.006512770405050989</v>
+        <v>0.009465493540119574</v>
       </c>
       <c r="P36">
-        <v>0.00651277040505099</v>
+        <v>0.009465493540119573</v>
       </c>
       <c r="Q36">
-        <v>28.263594164661</v>
+        <v>16.55835870614111</v>
       </c>
       <c r="R36">
-        <v>254.372347481949</v>
+        <v>149.02522835527</v>
       </c>
       <c r="S36">
-        <v>0.0007303913576883068</v>
+        <v>0.0006491436428940724</v>
       </c>
       <c r="T36">
-        <v>0.0007303913576883068</v>
+        <v>0.0006491436428940723</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.448501</v>
+        <v>9.032891333333334</v>
       </c>
       <c r="H37">
-        <v>43.345503</v>
+        <v>27.098674</v>
       </c>
       <c r="I37">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="J37">
-        <v>0.1121475673581016</v>
+        <v>0.06858001013287597</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>103.5205406666667</v>
+        <v>8.413317666666666</v>
       </c>
       <c r="N37">
-        <v>310.561622</v>
+        <v>25.239953</v>
       </c>
       <c r="O37">
-        <v>0.3446574763369395</v>
+        <v>0.04344302414999972</v>
       </c>
       <c r="P37">
-        <v>0.3446574763369397</v>
+        <v>0.04344302414999971</v>
       </c>
       <c r="Q37">
-        <v>1495.716635342874</v>
+        <v>75.99658423581356</v>
       </c>
       <c r="R37">
-        <v>13461.44971808587</v>
+        <v>683.969258122322</v>
       </c>
       <c r="S37">
-        <v>0.03865249754297025</v>
+        <v>0.002979323036409756</v>
       </c>
       <c r="T37">
-        <v>0.03865249754297025</v>
+        <v>0.002979323036409756</v>
       </c>
     </row>
   </sheetData>
